--- a/data/Multi_salt_alle_change_pH_DIT_M_clusterfuck.xlsx
+++ b/data/Multi_salt_alle_change_pH_DIT_M_clusterfuck.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF5AE81-950A-41F9-B57B-A9F29CDD2309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9024" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
   </bookViews>
   <sheets>
     <sheet name="pH 9.2" sheetId="1" r:id="rId1"/>
@@ -595,21 +595,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E6429C-0FFF-4E30-BF3A-6A5B96E649C1}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3.5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M15" si="1">I3*L3</f>
+        <f t="shared" ref="M3:M14" si="1">I3*L3</f>
         <v>170</v>
       </c>
       <c r="N3" s="3">
@@ -797,7 +797,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3.5</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1388,12 +1388,12 @@
       <selection activeCell="K17" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.25</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.25</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5.5</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1790,14 +1790,14 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.5</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.5</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8.17</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>8.17</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>9</v>
       </c>

--- a/data/Multi_salt_alle_change_pH_DIT_M_clusterfuck.xlsx
+++ b/data/Multi_salt_alle_change_pH_DIT_M_clusterfuck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/102222_grundfos_com/Documents/Desktop/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF5AE81-950A-41F9-B57B-A9F29CDD2309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{8EF5AE81-950A-41F9-B57B-A9F29CDD2309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1ECF934D-A495-400E-8D08-7734D8B7ED9C}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9024" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
+    <workbookView xWindow="19090" yWindow="30" windowWidth="19420" windowHeight="10420" xr2:uid="{9A7F57C6-AEBE-42AA-863E-04BDCF82B821}"/>
   </bookViews>
   <sheets>
     <sheet name="pH 9.2" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Lærke Nørgaard Madsen</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{ABCA0327-C4CB-4099-8B3C-9358B3123FA8}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ABCA0327-C4CB-4099-8B3C-9358B3123FA8}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>Na  [mg/l]</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>ZERO</t>
+  </si>
+  <si>
+    <t>ratio Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio Cl </t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,23 +601,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E6429C-0FFF-4E30-BF3A-6A5B96E649C1}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -634,34 +645,32 @@
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="R1" s="11"/>
       <c r="S1" s="10" t="s">
         <v>7</v>
       </c>
@@ -671,8 +680,17 @@
       <c r="U1" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -683,49 +701,66 @@
         <f t="shared" ref="C2:C13" si="0">CONCATENATE("M","-9.2-",A2,"-F")</f>
         <v>M-9.2-0-F</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="2">
+        <v>301</v>
+      </c>
+      <c r="E2" s="2">
+        <v>137</v>
+      </c>
+      <c r="F2" s="5">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7.9</v>
+      </c>
       <c r="H2" s="6">
         <v>40.4</v>
       </c>
       <c r="I2" s="6">
+        <f>D2/(D2+G2)*100</f>
+        <v>97.442538038200084</v>
+      </c>
+      <c r="J2" s="6">
+        <f>E2/(E2+F2)*100</f>
+        <v>65.865384615384613</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="6">
         <v>9.4</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>1339</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>9.11</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>25</v>
       </c>
-      <c r="M2" s="3">
-        <f>I2*L2</f>
+      <c r="P2" s="3">
+        <f>L2*O2</f>
         <v>235</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2">
         <v>19.399999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="R2" s="3">
-        <f>P2*Q2</f>
+      <c r="U2" s="3">
+        <f>S2*T2</f>
         <v>194</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>9.4</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.5</v>
       </c>
@@ -736,68 +771,85 @@
         <f t="shared" si="0"/>
         <v>M-9.2-3,5-F</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="2">
+        <v>344</v>
+      </c>
+      <c r="E3" s="2">
+        <v>131</v>
+      </c>
+      <c r="F3" s="5">
+        <v>98</v>
+      </c>
+      <c r="G3" s="5">
+        <v>24</v>
+      </c>
       <c r="H3" s="6">
         <v>42.9</v>
       </c>
       <c r="I3" s="6">
+        <f t="shared" ref="I3:I14" si="1">D3/(D3+G3)*100</f>
+        <v>93.478260869565219</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J15" si="2">E3/(E3+F3)*100</f>
+        <v>57.20524017467249</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="6">
         <v>6.8</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>1527</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>9.19</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>25</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M14" si="1">I3*L3</f>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P14" si="3">L3*O3</f>
         <v>170</v>
       </c>
-      <c r="N3" s="3">
+      <c r="Q3" s="3">
         <v>7.7</v>
       </c>
-      <c r="O3" s="3">
-        <f>N3*L3</f>
+      <c r="R3" s="3">
+        <f>Q3*O3</f>
         <v>192.5</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>6.7</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>50</v>
-      </c>
-      <c r="R3" s="3">
-        <f>P3*Q3</f>
-        <v>335</v>
-      </c>
-      <c r="S3">
-        <v>10.4</v>
-      </c>
-      <c r="T3">
-        <v>25</v>
       </c>
       <c r="U3" s="3">
         <f>S3*T3</f>
+        <v>335</v>
+      </c>
+      <c r="V3">
+        <v>10.4</v>
+      </c>
+      <c r="W3">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3">
+        <f>V3*W3</f>
         <v>260</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>4.8</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>100</v>
       </c>
-      <c r="X3">
-        <f>V3*W3</f>
+      <c r="AA3">
+        <f>Y3*Z3</f>
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.5</v>
       </c>
@@ -808,39 +860,54 @@
         <f>CONCATENATE("M","-9.2-",A4,"-P")</f>
         <v>M-9.2-3,5-P</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2">
+        <v>132</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>5.2</v>
+      </c>
       <c r="H4" s="6">
         <v>33.799999999999997</v>
       </c>
       <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>97.081930415263756</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="6">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>813</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>25</v>
       </c>
-      <c r="M4" s="14">
-        <f>I4*L4</f>
+      <c r="P4" s="14">
+        <f>L4*O4</f>
         <v>225</v>
       </c>
-      <c r="N4" s="15">
+      <c r="Q4" s="15">
         <v>9.5</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:O15" si="2">N4*L4</f>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:R15" si="4">Q4*O4</f>
         <v>237.5</v>
       </c>
-      <c r="R4" s="3">
-        <f t="shared" ref="R4:R14" si="3">P4*Q4</f>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4:U14" si="5">S4*T4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -851,48 +918,65 @@
         <f t="shared" si="0"/>
         <v>M-9.2-5-F</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="2">
+        <v>390</v>
+      </c>
+      <c r="E5" s="2">
+        <v>132</v>
+      </c>
+      <c r="F5" s="5">
+        <v>126</v>
+      </c>
+      <c r="G5" s="5">
+        <v>29</v>
+      </c>
       <c r="H5" s="6">
         <v>42.2</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>93.078758949880665</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="2"/>
+        <v>51.162790697674424</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>1708</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>9.23</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>25</v>
       </c>
-      <c r="M5" s="3">
-        <f>I5*L5</f>
+      <c r="P5" s="3">
+        <f>L5*O5</f>
         <v>242.49999999999997</v>
       </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="3">
         <v>10.3</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="2"/>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
         <v>257.5</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" si="3"/>
+      <c r="U5" s="3">
+        <f t="shared" si="5"/>
         <v>440.00000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -903,42 +987,57 @@
         <f>CONCATENATE("M","-9.2-",A6,"-P")</f>
         <v>M-9.2-5-P</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>194</v>
+      </c>
+      <c r="E6" s="2">
+        <v>136</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>5.8</v>
+      </c>
       <c r="H6" s="6">
         <v>35.5</v>
       </c>
       <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>97.097097097097091</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>882</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>8.56</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>25</v>
       </c>
-      <c r="M6" s="14">
-        <f t="shared" si="1"/>
+      <c r="P6" s="14">
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="N6" s="16">
+      <c r="Q6" s="16">
         <v>10.4</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" si="2"/>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="R6" s="3">
-        <f t="shared" si="3"/>
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -949,42 +1048,59 @@
         <f t="shared" si="0"/>
         <v>M-9.2-6-F</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="2">
+        <v>425</v>
+      </c>
+      <c r="E7" s="2">
+        <v>131</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+      <c r="G7" s="5">
+        <v>34</v>
+      </c>
       <c r="H7" s="6">
         <v>45.3</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>92.592592592592595</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="2"/>
+        <v>46.619217081850536</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="6">
         <v>9.4</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>1856</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>9.24</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>25</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="1"/>
+      <c r="P7" s="3">
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="N7" s="3">
+      <c r="Q7" s="3">
         <v>9.9</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="2"/>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
         <v>247.5</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="3"/>
+      <c r="U7" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -995,42 +1111,57 @@
         <f>CONCATENATE("M","-9.2-",A8,"-P")</f>
         <v>M-9.2-6-P</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2">
+        <v>134</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>5.8</v>
+      </c>
       <c r="H8" s="6">
         <v>41.3</v>
       </c>
       <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>97.181729834791057</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>945</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>8.57</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>25</v>
       </c>
-      <c r="M8" s="14">
-        <f t="shared" si="1"/>
+      <c r="P8" s="14">
+        <f t="shared" si="3"/>
         <v>229.99999999999997</v>
       </c>
-      <c r="N8" s="15">
+      <c r="Q8" s="15">
         <v>9.4</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="2"/>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" si="3"/>
+      <c r="U8" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1041,42 +1172,59 @@
         <f t="shared" si="0"/>
         <v>M-9.2-7-F</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="2">
+        <v>473</v>
+      </c>
+      <c r="E9" s="2">
+        <v>128</v>
+      </c>
+      <c r="F9" s="5">
+        <v>182</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40</v>
+      </c>
       <c r="H9" s="6">
         <v>48.4</v>
       </c>
       <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>92.202729044834314</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
+        <v>41.29032258064516</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>2050</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>9.2799999999999994</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>25</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="1"/>
+      <c r="P9" s="3">
+        <f t="shared" si="3"/>
         <v>229.99999999999997</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>9.9</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="2"/>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
         <v>247.5</v>
       </c>
-      <c r="R9" s="3">
-        <f t="shared" si="3"/>
+      <c r="U9" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1087,38 +1235,53 @@
         <f>CONCATENATE("M","-9.2-",A10,"-P")</f>
         <v>M-9.2-7-P</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>222</v>
+      </c>
+      <c r="E10" s="2">
+        <v>137</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>6.5</v>
+      </c>
       <c r="H10" s="6">
         <v>37.299999999999997</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10">
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>97.155361050328224</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="6"/>
+      <c r="M10">
         <v>1027</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>8.58</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>25</v>
       </c>
-      <c r="M10" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="P10" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1129,42 +1292,59 @@
         <f t="shared" si="0"/>
         <v>M-9.2-8-F</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="2">
+        <v>520</v>
+      </c>
+      <c r="E11" s="2">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5">
+        <v>215</v>
+      </c>
+      <c r="G11" s="5">
+        <v>46</v>
+      </c>
       <c r="H11" s="6">
         <v>50.2</v>
       </c>
       <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>91.872791519434628</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
+        <v>35.820895522388057</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="6">
         <v>7.5</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>2350</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>9.32</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>25</v>
       </c>
-      <c r="M11" s="3">
-        <f t="shared" si="1"/>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
         <v>187.5</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q11" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="2"/>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
         <v>204.99999999999997</v>
       </c>
-      <c r="R11" s="3">
-        <f t="shared" si="3"/>
+      <c r="U11" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1175,38 +1355,55 @@
         <f>CONCATENATE("M","-9.2-",A12,"-P")</f>
         <v>M-9.2-8-P</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="2">
+        <v>250</v>
+      </c>
+      <c r="E12" s="2">
+        <v>136</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7.2</v>
+      </c>
       <c r="H12" s="6">
         <v>38.299999999999997</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12">
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>97.200622083981344</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>98.550724637681171</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="6"/>
+      <c r="M12">
         <v>1130</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>8.59</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>25</v>
       </c>
-      <c r="M12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="P12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1217,42 +1414,59 @@
         <f t="shared" si="0"/>
         <v>M-9.2-8,7-F</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="2">
+        <v>625</v>
+      </c>
+      <c r="E13" s="2">
+        <v>125</v>
+      </c>
+      <c r="F13" s="5">
+        <v>311</v>
+      </c>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
       <c r="H13" s="6">
         <v>55.4</v>
       </c>
       <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>95.419847328244273</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
+        <v>28.669724770642201</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="6">
         <v>7.1</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>2710</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>9.2899999999999991</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>25</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" si="1"/>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
         <v>177.5</v>
       </c>
-      <c r="N13" s="3">
+      <c r="Q13" s="3">
         <v>7.6</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="2"/>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="R13" s="3">
-        <f t="shared" si="3"/>
+      <c r="U13" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1263,64 +1477,80 @@
         <f>CONCATENATE("M","-9.2-",A14,"-P")</f>
         <v>M-9.2-8,7-P</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>256</v>
+      </c>
+      <c r="E14" s="2">
+        <v>137</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>7.2</v>
+      </c>
       <c r="H14" s="6">
         <v>40.200000000000003</v>
       </c>
       <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>97.264437689969611</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="6">
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>1133</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>25</v>
       </c>
-      <c r="M14" s="14">
-        <f t="shared" si="1"/>
+      <c r="P14" s="14">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="N14" s="15">
+      <c r="Q14" s="15">
         <v>10.7</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="2"/>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
         <v>267.5</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" si="3"/>
+      <c r="U14" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15">
+      <c r="J15" s="6"/>
+      <c r="L15">
         <v>2.9</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="M15" s="14">
-        <f>I15*L15</f>
+      <c r="P15" s="14">
+        <f>L15*O15</f>
         <v>2.9</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>3.5</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="2"/>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1343,7 +1573,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1351,14 +1581,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" ref="C19:C20" si="4">CONCATENATE("Bi-M","-9.2-",A19,"-F")</f>
+        <f t="shared" ref="C19:C20" si="6">CONCATENATE("Bi-M","-9.2-",A19,"-F")</f>
         <v>Bi-M-9.2-6-F</v>
       </c>
       <c r="D19" s="2">
         <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -1366,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Bi-M-9.2-8,7-F</v>
       </c>
       <c r="D20" s="2">
@@ -1388,12 +1618,12 @@
       <selection activeCell="K17" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1653,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1443,7 +1673,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.25</v>
       </c>
@@ -1463,7 +1693,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.25</v>
       </c>
@@ -1483,7 +1713,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1503,7 +1733,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1523,7 +1753,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1543,7 +1773,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1563,7 +1793,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1583,7 +1813,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1603,7 +1833,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5.5</v>
       </c>
@@ -1623,7 +1853,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5.5</v>
       </c>
@@ -1643,7 +1873,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +1893,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1683,7 +1913,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1933,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1953,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1731,7 +1961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1746,7 +1976,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1761,7 +1991,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1790,14 +2020,14 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +2057,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1847,7 +2077,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.5</v>
       </c>
@@ -1867,7 +2097,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.5</v>
       </c>
@@ -1887,7 +2117,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1907,7 +2137,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1927,7 +2157,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1947,7 +2177,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1967,7 +2197,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1987,7 +2217,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2007,7 +2237,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2027,7 +2257,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2047,7 +2277,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2067,7 +2297,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2087,7 +2317,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8.17</v>
       </c>
@@ -2123,7 +2353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8.17</v>
       </c>
@@ -2143,7 +2373,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -2151,7 +2381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2164,7 +2394,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2177,7 +2407,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9</v>
       </c>
